--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest-dosageinstruction-usageduration.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest-dosageinstruction-usageduration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="155">
   <si>
     <t>Property</t>
   </si>
@@ -263,20 +263,20 @@
     <t>Extension.id</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>エレメント間参照のためのID</t>
-  </si>
-  <si>
-    <t>JP Coreでは使用されない。</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>n/a</t>
@@ -342,6 +342,12 @@
   </si>
   <si>
     <t>Extension.value[x].id</t>
+  </si>
+  <si>
+    <t>エレメント間参照のためのID</t>
+  </si>
+  <si>
+    <t>JP Coreでは使用されない。</t>
   </si>
   <si>
     <t>Extension.value[x].extension</t>
@@ -1076,7 +1082,7 @@
         <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>76</v>
@@ -1088,13 +1094,13 @@
         <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1145,13 +1151,13 @@
         <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>76</v>
@@ -1273,10 +1279,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>76</v>
@@ -1350,10 +1356,10 @@
         <v>95</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>76</v>
@@ -1378,7 +1384,7 @@
         <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>76</v>
@@ -1453,7 +1459,7 @@
         <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>76</v>
@@ -1490,13 +1496,13 @@
         <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1547,13 +1553,13 @@
         <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>76</v>
@@ -1567,11 +1573,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -1593,13 +1599,13 @@
         <v>89</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1669,7 +1675,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1677,10 +1683,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>76</v>
@@ -1689,10 +1695,10 @@
         <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>103</v>
@@ -1701,10 +1707,10 @@
         <v>104</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O9" t="s" s="2">
         <v>76</v>
@@ -1753,13 +1759,13 @@
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>76</v>
@@ -1768,12 +1774,12 @@
         <v>105</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1784,35 +1790,35 @@
         <v>77</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q10" t="s" s="2">
         <v>76</v>
@@ -1833,13 +1839,13 @@
         <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>76</v>
@@ -1857,13 +1863,13 @@
         <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>76</v>
@@ -1872,12 +1878,12 @@
         <v>105</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1885,10 +1891,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>76</v>
@@ -1897,27 +1903,27 @@
         <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="R11" t="s" s="2">
         <v>76</v>
@@ -1959,13 +1965,13 @@
         <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>76</v>
@@ -1974,12 +1980,12 @@
         <v>105</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1987,10 +1993,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>76</v>
@@ -1999,27 +2005,27 @@
         <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="R12" t="s" s="2">
         <v>76</v>
@@ -2061,27 +2067,27 @@
         <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2089,10 +2095,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>76</v>
@@ -2101,29 +2107,29 @@
         <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>76</v>
@@ -2165,13 +2171,13 @@
         <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>76</v>
@@ -2180,7 +2186,7 @@
         <v>105</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest-dosageinstruction-usageduration.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest-dosageinstruction-usageduration.xlsx
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>隔日投与など、服用開始日から終了日までの日数と実投与日数が異なる場合に、実投与日数を明⽰したい場合に使⽤する拡張</t>
+    <t>隔日投与など、服用開始日から終了日までの日数と実投与日数が異なる場合に、実投与日数を明⽰したい場合に使用する拡張</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest-dosageinstruction-usageduration.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest-dosageinstruction-usageduration.xlsx
@@ -252,6 +252,12 @@
     <t>*</t>
   </si>
   <si>
+    <t>実投与日数</t>
+  </si>
+  <si>
+    <t>隔日投与などで実投与日数と処方期間が異なる場合に用いられる。</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
@@ -329,12 +335,6 @@
   <si>
     <t xml:space="preserve">Duration
 </t>
-  </si>
-  <si>
-    <t>実投与日数</t>
-  </si>
-  <si>
-    <t>隔日投与などで実投与日数と処方期間が異なる場合に用いられる。</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -831,7 +831,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.83203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="44.26171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -997,10 +997,10 @@
         <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1060,10 +1060,10 @@
         <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>76</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1082,7 +1082,7 @@
         <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>76</v>
@@ -1094,13 +1094,13 @@
         <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1151,13 +1151,13 @@
         <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>76</v>
@@ -1166,12 +1166,12 @@
         <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1194,13 +1194,13 @@
         <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1239,19 +1239,19 @@
         <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>77</v>
@@ -1263,7 +1263,7 @@
         <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>76</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1279,10 +1279,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>76</v>
@@ -1294,16 +1294,16 @@
         <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1353,13 +1353,13 @@
         <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>76</v>
@@ -1368,12 +1368,12 @@
         <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1384,7 +1384,7 @@
         <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>76</v>
@@ -1396,13 +1396,13 @@
         <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1453,13 +1453,13 @@
         <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>76</v>
@@ -1468,7 +1468,7 @@
         <v>105</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
@@ -1484,7 +1484,7 @@
         <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>76</v>
@@ -1496,7 +1496,7 @@
         <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>107</v>
@@ -1553,13 +1553,13 @@
         <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>76</v>
@@ -1568,7 +1568,7 @@
         <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -1596,7 +1596,7 @@
         <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>111</v>
@@ -1643,19 +1643,19 @@
         <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AC8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>77</v>
@@ -1667,10 +1667,10 @@
         <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
@@ -1686,7 +1686,7 @@
         <v>77</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>76</v>
@@ -1701,10 +1701,10 @@
         <v>116</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="M9" t="s" s="2">
         <v>117</v>
@@ -1765,7 +1765,7 @@
         <v>77</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>76</v>
@@ -1790,7 +1790,7 @@
         <v>77</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>76</v>
@@ -1869,7 +1869,7 @@
         <v>77</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>76</v>
@@ -1894,7 +1894,7 @@
         <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>76</v>
@@ -1906,7 +1906,7 @@
         <v>115</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>133</v>
@@ -1971,7 +1971,7 @@
         <v>77</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>76</v>
@@ -1996,7 +1996,7 @@
         <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>76</v>
@@ -2008,7 +2008,7 @@
         <v>115</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>140</v>
@@ -2073,7 +2073,7 @@
         <v>77</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>145</v>
@@ -2098,7 +2098,7 @@
         <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>76</v>
@@ -2177,7 +2177,7 @@
         <v>77</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>76</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest-dosageinstruction-usageduration.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest-dosageinstruction-usageduration.xlsx
@@ -428,13 +428,13 @@
     <t>実投与日数単位</t>
   </si>
   <si>
-    <t>「日」で固定される</t>
+    <t>「Day」で固定される</t>
   </si>
   <si>
     <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
-    <t>日</t>
+    <t>day</t>
   </si>
   <si>
     <t>Quantity.unit</t>
